--- a/nets/FindTensorAnsSeqSize/Mesurements.xlsx
+++ b/nets/FindTensorAnsSeqSize/Mesurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -485,6 +485,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TestSetAccurarcy for Tensor-Input-Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 600 and 2 Dense-Layers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -561,10 +591,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SS300'!$B$2:$B$17</c:f>
+              <c:f>'SS300'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>600.0</c:v>
                 </c:pt>
@@ -612,17 +642,32 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SS300'!$C$2:$C$17</c:f>
+              <c:f>'SS300'!$C$2:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="0.00%">
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
                   <c:v>0.52083</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -637,10 +682,10 @@
                 <c:pt idx="4">
                   <c:v>0.47917</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00%">
+                <c:pt idx="5">
                   <c:v>0.52083</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
@@ -661,11 +706,29 @@
                 <c:pt idx="12">
                   <c:v>0.47917</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52083</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.54167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52083</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,6 +767,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> neurons per dense-layer</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -766,6 +890,108 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>TestSetAccurarcy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -866,6 +1092,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TestSetAccurarcy for Tensor-Input-Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 800 and 2 Dense-Layers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -942,10 +1198,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SS300'!$B$37:$B$58</c:f>
+              <c:f>'SS300'!$B$37:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>800.0</c:v>
                 </c:pt>
@@ -996,19 +1252,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3500.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SS300'!$C$37:$C$58</c:f>
+              <c:f>'SS300'!$C$37:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.55556</c:v>
                 </c:pt>
@@ -1076,11 +1329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125794624"/>
-        <c:axId val="2125797728"/>
+        <c:axId val="2134853264"/>
+        <c:axId val="-2114684208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125794624"/>
+        <c:axId val="2134853264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,6 +1353,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> neurons per dense-layer</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1136,16 +1450,15 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125797728"/>
+        <c:crossAx val="-2114684208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125797728"/>
+        <c:axId val="-2114684208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1163,6 +1476,108 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>TestSetAccurarcy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1199,7 +1614,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125794624"/>
+        <c:crossAx val="2134853264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3005,20 +3420,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3485,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3518,7 +3935,7 @@
       <c r="B3">
         <v>700</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.52083000000000002</v>
       </c>
     </row>
@@ -3526,7 +3943,7 @@
       <c r="B4">
         <v>725</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.54166999999999998</v>
       </c>
     </row>
@@ -3534,7 +3951,7 @@
       <c r="B5">
         <v>750</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.45833000000000002</v>
       </c>
     </row>
@@ -3542,7 +3959,7 @@
       <c r="B6">
         <v>775</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.47916999999999998</v>
       </c>
     </row>
@@ -3566,7 +3983,7 @@
       <c r="B9">
         <v>850</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.45833000000000002</v>
       </c>
     </row>
@@ -3574,7 +3991,7 @@
       <c r="B10">
         <v>875</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -3582,7 +3999,7 @@
       <c r="B11">
         <v>900</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.4375</v>
       </c>
     </row>
@@ -3590,7 +4007,7 @@
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.52083000000000002</v>
       </c>
     </row>
@@ -3598,7 +4015,7 @@
       <c r="B13">
         <v>1200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.41666999999999998</v>
       </c>
     </row>
@@ -3606,7 +4023,7 @@
       <c r="B14">
         <v>1400</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.47916999999999998</v>
       </c>
     </row>
@@ -3614,12 +4031,15 @@
       <c r="B15">
         <v>1500</v>
       </c>
+      <c r="C15" s="2">
+        <v>0.52083000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1600</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -3627,7 +4047,7 @@
       <c r="B17">
         <v>1800</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.54166999999999998</v>
       </c>
     </row>
@@ -3635,25 +4055,40 @@
       <c r="B18">
         <v>2000</v>
       </c>
+      <c r="C18" s="2">
+        <v>0.41666999999999998</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2500</v>
       </c>
+      <c r="C19" s="2">
+        <v>0.54166999999999998</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3000</v>
       </c>
+      <c r="C20" s="2">
+        <v>0.52083000000000002</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3500</v>
       </c>
+      <c r="C21" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.54669999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
